--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -62,6 +62,74 @@
     <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -356,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -1006,6 +1074,69 @@
 SFW score:0.16543053090572357
 NSFW score:0.8345694541931152
 含色情图片！违规！！
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>culturelle康萃乐HW消化免疫双效益生菌.jpg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2023-03-07 15:45:17</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">合格
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>culturelle康萃乐HW消化免疫双效益生菌.jpg</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:19:24</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">合格
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>culturelle康萃乐HW消化免疫双效益生菌.jpg</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:20:48</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">合格
 </t>
         </is>
       </c>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -1137,6 +1137,155 @@
       <c r="D30" t="inlineStr">
         <is>
           <t xml:space="preserve">合格
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Profile.JPG</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:25:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">合格
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Profile.JPG</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:26:03</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">合格
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>18sec男士独爱劲爽按摩凝胶（2）.jpg</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:31:06</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">图片不合格 : 存在自定义文本黑名单不合规,违规词：['第一']
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3D蒸汽热敷眼罩（2）.jpg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:31:26</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">图片不合格 : 存在自定义文本黑名单不合规,违规词：['第一']
+合格
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3D蒸汽热敷眼罩（2）.jpg</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:34:59</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qualified
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3D蒸汽热敷眼罩（2）.jpg</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:37:05</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qualified
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>18sec男士独爱劲爽按摩凝胶（2）.jpg</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:37:16</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qualified
+Picture is unqualified, exist a custom text blacklist not compliance, bad words: [' first ']
 </t>
         </is>
       </c>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -1287,6 +1287,201 @@
           <t xml:space="preserve">qualified
 Picture is unqualified, exist a custom text blacklist not compliance, bad words: [' first ']
 </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Qualified.jpg</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:40:08</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qualified
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Not Qualified.jpg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:40:18</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qualified
+qualified
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>IMG_5177(20230220-232409).JPG</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:40:48</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qualified
+qualified
+Images is unqualified, politically sensitive irregularities, illegal words: [' &amp; riots in xinjiang ', 'falun gong', 'the xinjiang riots]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>18sec男士独爱劲爽按摩凝胶（1）.jpg</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:41:53</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qualified
+qualified
+Images is unqualified, politically sensitive irregularities, illegal words: [' &amp; riots in xinjiang ', 'falun gong', 'the xinjiang riots]
+Unqualified pictures: text porn irregularities, illegal words: []
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3D蒸汽热敷眼罩(1).jpg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:42:21</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qualified
+qualified
+Images is unqualified, politically sensitive irregularities, illegal words: [' &amp; riots in xinjiang ', 'falun gong', 'the xinjiang riots]
+Unqualified pictures: text porn irregularities, illegal words: []
+qualified
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Not Qualified (2).jpg</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:43:49</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Unqualified pictures: text porn irregularities, illegal words: []</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Not Qualified.JPG</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:43:53</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Picture is unqualified, politically sensitive irregularities, illegal words: [' &amp; riots in xinjiang ', 'riots in xinjiang, "falun gong"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Qualified (2).jpg</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:43:57</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Picture is unqualified, exist a custom text blacklist not compliance, bad words: [' first ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Qualified.jpg</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2023-03-07 20:44:03</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>qualified</t>
         </is>
       </c>
     </row>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -456,6 +456,22 @@
     <t xml:space="preserve">The Contains prohibited words: swelling treatment alone buy milk series red blood silk is goodSFW score:0.9479659199714661
 NSFW score:0.05203406140208244
 鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-08 13:31:17</t>
+  </si>
+  <si>
+    <t>2023-04-08 13:33:25</t>
+  </si>
+  <si>
+    <t>2023-04-08 13:33:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:独 购买 红肿 治疗 奶 统 红血丝 善
+SFW score:0.9479659199714661
+NSFW score:0.05203406140208244
+图片合格
 </t>
   </si>
 </sst>
@@ -802,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -1554,6 +1570,48 @@
       </c>
       <c r="D53" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -471,6 +471,47 @@
     <t xml:space="preserve">Contains prohibited words:独 购买 红肿 治疗 奶 统 红血丝 善
 SFW score:0.9479659199714661
 NSFW score:0.05203406140208244
+图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-09 19:45:58</t>
+  </si>
+  <si>
+    <t>2023-04-09 19:48:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:独 购买 红肿 治疗 奶 统 红血丝 善
+SFW score:0.9479659199714661
+NSFW score:0.05203406140208244
+图片合格
+Contains prohibited words:独 购买 红肿 治疗 奶 统 红血丝 善
+SFW score:0.9479659199714661
+NSFW score:0.05203406140208244
+图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-10 15:54:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:地址 大牌 第一
+SFW score:0.991958498954773
+NSFW score:0.008041494525969028
+图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-10 15:56:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:地址 大牌 第一
+SFW score:0.991958498954773
+NSFW score:0.008041494525969028
+图片合格
+Contains prohibited words:比 ice
+SFW score:0.9988194108009338
+NSFW score:0.0011805810499936342
 图片合格
 </t>
   </si>
@@ -818,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -1612,6 +1653,62 @@
       </c>
       <c r="D56" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -513,6 +513,102 @@
 SFW score:0.9988194108009338
 NSFW score:0.0011805810499936342
 图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 12:31:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:sm 按摩 b
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 12:36:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:成人 乳 乳 草 调教 成人 买 日 sm 调教 乳 阴蒂 阴道 g点 龟头 操 快感 快感 sm 调教
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:13:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:真 批发 250 购买 日 购买 统 社会 日 日 日 仅限 销售 乙酸乙酯 藏 日 购买 绝对 买 关键词 最 善 政府 日 客服 购买 买 购买 买 卖 购买 联系 客服 销售 购买 b
+SFW score:0.9969471096992493
+NSFW score:0.003052958520129323
+图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:13:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:真 按摩 手机 日 速效 买 购买 发票 联系 客服 地址 电话 性福 安全 独 按摩 独 按摩 激素 激素 阴茎 睾 激素 促性腺激素 刺激 睾 独 按摩 甘油 刺激 一天 睾 抗菌 av 独 按摩 激素 刺激 行房 刺激 激素 刺激 刺激 永久 第一 第一 阴茎 按摩 阴茎 阴囊 阴囊 按摩 龟头 按摩 按摩 阴茎 按摩 按摩 阴茎 按摩 阴囊 独 独 按摩 独 按摩 黄色 草 代理 日 独 按摩 独 按摩 .com bSFW score:0.991958498954773
+NSFW score:0.008041494525969028
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:14:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:统 系统 真 买 日 湾 统 学位证 统 统 首家 真 客服 客服 统 日 客服 办理 卖 最 第一 乳 真 真 购买 真 靠 250 其他 最 社会 统 比 真 真 最 佛教 买 买 最 买 买 真 真 第一 最 买 买 比SFW score:0.9996581077575684
+NSFW score:0.00034190923906862736
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:14:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:淘宝 卖 日 日 日 真 买 卖 买 卖 买 买 日 淘宝 真 前考 其他 奶 温馨 淘宝 地址 淘宝 淘宝 淘宝 淘宝 其他 淘宝 b b 管理 第一 真 手机 系统 系统 真 b 系统 最 系统 系统 日 真 真 真 日 真 真 真 真 日 真 真 真 真 日 代理 代理 代理 真 代理 真 真 日 真 真 真 最 国家 统 qq 日 qq qq 真SFW score:0.9977292418479919
+NSFW score:0.002270831959322095
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:14:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:b 网站 手机 供应 联系 批发 cs cs cs 订购 藏 供应 买 订购 专供 国家 销售 客服 联系 客服 真 纯天然 统 真 比 250 cs cs 统 ur ur 安全 靠 无毒 b 比 制作 双唇 b 制作 销售 管理 客服 电话 买 温馨 安全 日 客服 ice 销售 最 日 最 买 日 比 日 安全 买 买 买 客服SFW score:0.9988194108009338
+NSFW score:0.0011805810499936342
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:14:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:独 买 购买 红肿 治疗 善 港 安全 刺激SFW score:0.9785385727882385
+NSFW score:0.021461380645632744
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:14:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:真 批发 250 购买 日 购买 统 社会 日 日 日 仅限 销售 乙酸乙酯 藏 日 购买 绝对 买 关键词 最 善 政府 日 客服 购买 买 购买 买 卖 购买 联系 客服 销售 购买 bSFW score:0.9969471096992493
+NSFW score:0.003052958520129323
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:15:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:日 手机 淘宝 卖 草 其他 统 其他 安全 高效 安全 高效 最 金牌 最 最 最 鸡 今天 最 100% b b b b b b b b b 小姐 b b 第一 电话 周末 系统 系统 客服 电话 最 真 真 其他 比 其他 一流 靠 最 第一 真 靠 专柜 正品 最 日 日SFW score:0.990435779094696
+NSFW score:0.009564166888594627
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:15:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:日 手机 淘宝 日 日 日 其他 统 其他 安全 高效 安全 高效 最 金牌 最 最 最 鸡 今天 最 100% 日 b b b b b b b b 小姐 b 统 第一 电话 系统 最 真 客服 电话 最 真 真 比 其他 一流 靠 最 第一SFW score:0.9932558536529541
+NSFW score:0.0067441719584167
+鍥剧墖鍚堟牸
 </t>
   </si>
 </sst>
@@ -859,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -1709,6 +1805,160 @@
       </c>
       <c r="D60" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
@@ -609,6 +609,46 @@
     <t xml:space="preserve">Contains prohibited words:日 手机 淘宝 日 日 日 其他 统 其他 安全 高效 安全 高效 最 金牌 最 最 最 鸡 今天 最 100% 日 b b b b b b b b 小姐 b 统 第一 电话 系统 最 真 客服 电话 最 真 真 比 其他 一流 靠 最 第一SFW score:0.9932558536529541
 NSFW score:0.0067441719584167
 鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:15:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:官方 购买 头痛 治疗 购买 卖 买 客服 色色 日 治疗 头痛 头痛 头痛 头痛 忍 港 头痛 头痛 头痛 头痛 头痛 头痛 真 靠 忍 头痛 头痛 头痛 除湿 益气 鸡 头痛 治疗 头痛 头痛 治疗 委 头痛 头痛 头痛 头痛 头痛 有效率 头痛 有效率 头痛 头痛 头痛 一天 头痛 一天 一天 头痛 头痛 治疗 领导品牌 头痛 真 头痛 治疗SFW score:0.9979037046432495
+NSFW score:0.002096356824040413
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:15:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:真 日 购买 购买 出售 比 有售 真 联系 其他 制作 制作 草 制造 直销 b 招财进宝 比 杀 藏 招财进宝 招财进宝 风水 国家 专柜 招财进宝 滚 滚 善 周年庆 销售 制作 制作 管理 制造 管理 购买 ur 客服 港 澳 客服SFW score:0.9921969175338745
+NSFW score:0.0078030601143836975
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:15:50</t>
+  </si>
+  <si>
+    <t>Contains prohibited words:真 成人 乳 乳 阴茎 阴蒂 调教 自慰 手机 购买 sm 调教 乳 阴蒂 阴道 龟头 操 快感 调教 快感 sm 调教 乳 阴蒂 阴道 调教 快感 测试 刺激 刺激 g点 刺激 肛 刺激 乳 按摩 按摩 adult sm 调教 b .com b</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:15:58</t>
+  </si>
+  <si>
+    <t>Contains prohibited words:购买 日 正品 裂 毛细血管 250 日 最 日 250 日 250 日 清除 药物 日 药物 日 制造 g产 日 管理 gm gm 靠 日 监管 日 日 购买 购买 日 日 身份证 身份证 法正 身份证 身份证 客服 香港 日 周末 日 客服 联系 客服 联系 客服 销售 限制 购买 联系 客服 系统 系统 联系 客服 日 绝对 购买 绝对 善 政府 日 客服 购买 购买 销售 买 买 卖 卖 人民 购买 购买 正品 正品 100% 正品 日 买 日</t>
+  </si>
+  <si>
+    <t>2023-04-11 14:53:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:真 比 真 其他 草 招财进宝 比 杀 招财进宝 招财进宝 风水 国家 招财进宝 滚 滚 善 周年庆 管理 管理 ur 客服 客服
+SFW score:0.9921969175338745
+NSFW score:0.0078030601143836975
+图片合格
 </t>
   </si>
 </sst>
@@ -955,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -1959,6 +1999,76 @@
       </c>
       <c r="D71" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>ID</t>
   </si>
@@ -648,6 +648,343 @@
     <t xml:space="preserve">Contains prohibited words:真 比 真 其他 草 招财进宝 比 杀 招财进宝 招财进宝 风水 国家 招财进宝 滚 滚 善 周年庆 管理 管理 ur 客服 客服
 SFW score:0.9921969175338745
 NSFW score:0.0078030601143836975
+图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-12 14:59:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:正品 毛细血管 250 最 250 250 清除 药物 药物 gm gm 靠 监管 身份证 身份证 法正 身份证 身份证 香港 周末 限制 系统 系统 绝对 绝对 善 政府 人民 正品 正品 100% 正品
+</t>
+  </si>
+  <si>
+    <t>2023-04-12 21:59:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:独立 红肿 治疗 善 安全
+SFW score:0.9785385727882385
+NSFW score:0.021461380645632744
+图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-12 22:52:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:独立 红肿 治疗 红血丝 善SFW score:0.9479659199714661
+NSFW score:0.05203406140208244
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-12 22:52:19</t>
+  </si>
+  <si>
+    <t>Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 乳 阴蒂 阴道 g点 龟头 操 sm调教</t>
+  </si>
+  <si>
+    <t>2023-04-12 22:53:11</t>
+  </si>
+  <si>
+    <t>2023-04-12 22:53:14</t>
+  </si>
+  <si>
+    <t>2023-04-12 22:53:46</t>
+  </si>
+  <si>
+    <t>2023-04-12 22:53:49</t>
+  </si>
+  <si>
+    <t>2023-04-12 22:56:11</t>
+  </si>
+  <si>
+    <t>2023-04-12 22:56:15</t>
+  </si>
+  <si>
+    <t>2023-04-12 23:40:49</t>
+  </si>
+  <si>
+    <t>2023-04-12 23:40:53</t>
+  </si>
+  <si>
+    <t>2023-04-12 23:51:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:独立 红肿 治疗 红血丝 善
+Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 乳 阴蒂 阴道 g点 龟头 操 sm调教
+Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 乳 阴蒂 阴道 g点 龟头 操 sm调教
+</t>
+  </si>
+  <si>
+    <t>2023-04-12 23:53:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:独立 红肿 治疗 红血丝 善
+Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 乳 阴蒂 阴道 g点 龟头 操 sm调教
+Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 乳 阴蒂 阴道 g点 龟头 操 sm调教
+Contains prohibited words:独立 红肿 治疗 红血丝 善
+SFW score:0.9479659199714661
+NSFW score:0.05203406140208244
+图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-12 23:54:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:独立 红肿 治疗 红血丝 善
+Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 乳 阴蒂 阴道 g点 龟头 操 sm调教
+Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 乳 阴蒂 阴道 g点 龟头 操 sm调教
+Contains prohibited words:独立 红肿 治疗 红血丝 善
+SFW score:0.9479659199714661
+NSFW score:0.05203406140208244
+图片合格
+Contains prohibited words:真 成人 乳 乳 阴茎 阴蒂 调教 自慰 sm调教 乳 阴蒂 阴道 龟头 操 调教 sm调教 乳 阴蒂 阴道 调教 g点 肛 乳 sm调教 .com
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:02:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:独立 红肿 治疗 红血丝 善
+Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 乳 阴蒂 阴道 g点 龟头 操 sm调教
+Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 乳 阴蒂 阴道 g点 龟头 操 sm调教
+Contains prohibited words:独立 红肿 治疗 红血丝 善
+SFW score:0.9479659199714661
+NSFW score:0.05203406140208244
+图片合格
+Contains prohibited words:真 成人 乳 乳 阴茎 阴蒂 调教 自慰 sm调教 乳 阴蒂 阴道 龟头 操 调教 sm调教 乳 阴蒂 阴道 调教 g点 肛 乳 sm调教 .com
+Contains prohibited words:真 成人 乳 乳 阴茎 阴蒂 调教 自慰 sm调教 乳 阴蒂 阴道 龟头 操 调教 sm调教 乳 阴蒂 阴道 调教 g点 肛 乳 sm调教 .com
+</t>
+  </si>
+  <si>
+    <t>Adult.jpg</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:04:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:独立 红肿 治疗 红血丝 善
+Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 乳 阴蒂 阴道 g点 龟头 操 sm调教
+Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 乳 阴蒂 阴道 g点 龟头 操 sm调教
+Contains prohibited words:独立 红肿 治疗 红血丝 善
+SFW score:0.9479659199714661
+NSFW score:0.05203406140208244
+图片合格
+Contains prohibited words:真 成人 乳 乳 阴茎 阴蒂 调教 自慰 sm调教 乳 阴蒂 阴道 龟头 操 调教 sm调教 乳 阴蒂 阴道 调教 g点 肛 乳 sm调教 .com
+Contains prohibited words:真 成人 乳 乳 阴茎 阴蒂 调教 自慰 sm调教 乳 阴蒂 阴道 龟头 操 调教 sm调教 乳 阴蒂 阴道 调教 g点 肛 乳 sm调教 .com
+Contains prohibited words:真 成人 乳 乳 阴茎 阴蒂 调教 自慰 sm调教 乳 阴蒂 阴道 龟头 操 调教 sm调教 乳 阴蒂 阴道 调教 g点 肛 乳 sm调教 .com
+SFW score:0.9972488284111023
+NSFW score:0.0027511047665029764
+图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:31:01</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:31:05</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:31:53</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:31:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 乳 阴蒂 阴道 g点 龟头 操 sm调教SFW score:0.9989073276519775
+NSFW score:0.0010927198454737663
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:36:46</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:36:52</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:37:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:真 速效 发票 地址 安全 激素 激素 阴茎 睾 激素 促性腺激素 睾 甘油 一天 睾 抗菌 av 激素 行房 激素 永久 第一 第一 阴茎 阴茎 阴囊 阴囊 龟头 阴茎 阴茎 阴囊 黄色 草 .comSFW score:0.991958498954773
+NSFW score:0.008041494525969028
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:37:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:系统 真 首家 真 最 第一 乳 真 真 真 靠 250 其他 最 社会 比 真 真 最 佛教 最 真 真 第一 最 比SFW score:0.9996581077575684
+NSFW score:0.00034190923906862736
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:37:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:淘宝 真 淘宝 真 前考 其他 温馨 淘宝 地址 淘宝 淘宝 淘宝 淘宝 其他 淘宝 第一 真 系统 系统 真 系统 最 系统 系统 真 真 真 真 真 真 真 真 真 真 真 真 真 真 真 真 真 最 真SFW score:0.9977292418479919
+NSFW score:0.002270831959322095
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:37:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:联系方式 订购 订购 专供 真 纯天然 真 比 250 ur ur 安全 靠 无毒 比 双唇 温馨 安全 ice 最 最 比 安全SFW score:0.9988194108009338
+NSFW score:0.0011805810499936342
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:37:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:独立 红肿 治疗 善 安全SFW score:0.9785385727882385
+NSFW score:0.021461380645632744
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:38:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:真 250 社会 仅限 乙酸乙酯 绝对 关键词 最 善 政府SFW score:0.9969471096992493
+NSFW score:0.003052958520129323
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:38:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:淘宝 草 其他 其他 安全 高效 安全 高效 最 金牌 最 最 最 鸡 今天 最 100% 小姐 第一 周末 系统 系统 最 真 真 其他 比 其他 一流 靠 最 第一 真 靠 正品 最SFW score:0.990435779094696
+NSFW score:0.009564166888594627
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:38:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:淘宝 其他 其他 安全 高效 安全 高效 最 金牌 最 最 最 鸡 今天 最 100% 小姐 第一 系统 最 真 最 真 真 比 其他 一流 靠 最 第一SFW score:0.9932558536529541
+NSFW score:0.0067441719584167
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:38:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:头痛 治疗 色色 治疗 头痛 头痛 头痛 头痛 忍 头痛 头痛 头痛 头痛 头痛 头痛 真 靠 忍 头痛 头痛 头痛 除湿 益气 鸡 头痛 治疗 头痛 头痛 治疗 头痛 头痛 头痛 头痛 头痛 有效率 头痛 有效率 头痛 头痛 头痛 一天 头痛 一天 一天 头痛 头痛 治疗 领导品牌 头痛 真 头痛 治疗SFW score:0.9979037046432495
+NSFW score:0.002096356824040413
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:38:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:真 比 真 其他 草 招财进宝 比 杀 招财进宝 招财进宝 风水 招财进宝 滚 滚 善 周年庆 urSFW score:0.9921969175338745
+NSFW score:0.0078030601143836975
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:38:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:真 成人 乳 乳 阴茎 阴蒂 调教 自慰 sm调教 乳 阴蒂 阴道 龟头 操 调教 sm调教 乳 阴蒂 阴道 调教 g点 肛 乳 sm调教 .comSFW score:0.9972488284111023
+NSFW score:0.0027511047665029764
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:39:02</t>
+  </si>
+  <si>
+    <t>Contains prohibited words:正品 毛细血管 250 最 250 250 清除 药物 药物 gm gm 靠 身份证 身份证 法正 身份证 身份证 周末 限制 系统 系统 绝对 绝对 善 政府 人民 正品 正品 100% 正品</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:39:48</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:39:54</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:40:04</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:40:10</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:40:49</t>
+  </si>
+  <si>
+    <t>2023-04-13 00:40:55</t>
+  </si>
+  <si>
+    <t>2023-04-13 14:06:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:最 社会 绝对 真 关键词 善 乙酸乙酯 政府 仅限 250
+SFW score:0.9969471096992493
+NSFW score:0.003052958520129323
+图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 14:08:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:治疗 红血丝 善 独立 红肿SFW score:0.9479659199714661
+NSFW score:0.05203406140208244
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 14:08:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 sm调教 乳 阴蒂 阴道 g点 龟头 操SFW score:0.9989073276519775
+NSFW score:0.0010927198454737663
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>0197865aea7228a801207fa19f2d25.jpg@1280w_1l_2o_100sh.jpg</t>
+  </si>
+  <si>
+    <t>2023-04-13 14:22:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:最 社会 绝对 真 关键词 善 乙酸乙酯 政府 仅限 250
+SFW score:0.9969471096992493
+NSFW score:0.003052958520129323
+图片合格
+Contains prohibited words:治疗 红血丝 善 独立 红肿
+Contains prohibited words:成人 乳 乳 草 调教 成人 sm调教 sm调教 乳 阴蒂 阴道 g点 龟头 操
+Contains prohibited words:ice 减肥 地址
+SFW score:0.9856772422790527
+NSFW score:0.014322752133011818
+图片合格
+图片文字内容合格
+SFW score:0.9334074258804321
+NSFW score:0.06659263372421265
+图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-13 14:24:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图片文字内容合格
+SFW score:0.9334074258804321
+NSFW score:0.06659263372421265
 图片合格
 </t>
   </si>
@@ -995,7 +1332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -2069,6 +2406,650 @@
       </c>
       <c r="D76" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" t="s">
+        <v>173</v>
+      </c>
+      <c r="D88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" t="s">
+        <v>186</v>
+      </c>
+      <c r="D95" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" t="s">
+        <v>187</v>
+      </c>
+      <c r="D96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" t="s">
+        <v>191</v>
+      </c>
+      <c r="D99" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>192</v>
+      </c>
+      <c r="D100" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>196</v>
+      </c>
+      <c r="D102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>198</v>
+      </c>
+      <c r="D103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>200</v>
+      </c>
+      <c r="D104" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" t="s">
+        <v>202</v>
+      </c>
+      <c r="D105" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" t="s">
+        <v>204</v>
+      </c>
+      <c r="D106" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" t="s">
+        <v>206</v>
+      </c>
+      <c r="D107" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" t="s">
+        <v>208</v>
+      </c>
+      <c r="D108" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>182</v>
+      </c>
+      <c r="C110" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" t="s">
+        <v>214</v>
+      </c>
+      <c r="D111" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" t="s">
+        <v>216</v>
+      </c>
+      <c r="D112" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C113" t="s">
+        <v>217</v>
+      </c>
+      <c r="D113" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>90</v>
+      </c>
+      <c r="C114" t="s">
+        <v>218</v>
+      </c>
+      <c r="D114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>182</v>
+      </c>
+      <c r="C115" t="s">
+        <v>219</v>
+      </c>
+      <c r="D115" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C116" t="s">
+        <v>220</v>
+      </c>
+      <c r="D116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" t="s">
+        <v>221</v>
+      </c>
+      <c r="D117" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" t="s">
+        <v>222</v>
+      </c>
+      <c r="D118" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C119" t="s">
+        <v>224</v>
+      </c>
+      <c r="D119" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>182</v>
+      </c>
+      <c r="C120" t="s">
+        <v>226</v>
+      </c>
+      <c r="D120" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>228</v>
+      </c>
+      <c r="C121" t="s">
+        <v>229</v>
+      </c>
+      <c r="D121" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" t="s">
+        <v>231</v>
+      </c>
+      <c r="D122" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
   <si>
     <t>ID</t>
   </si>
@@ -986,6 +986,159 @@
 SFW score:0.9334074258804321
 NSFW score:0.06659263372421265
 图片合格
+</t>
+  </si>
+  <si>
+    <t>GLORIOUS-格诺锐-Model-D-D-无线有线洞洞鼠标游戏电竞可充电奥丁-tmall-com天猫.jpg</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:25:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:最 比 淘宝 ice taobao 人民 正品 最 发票 sb 最 sb 最 系统 淘宝 安全 系统SFW score:0.9957427382469177
+NSFW score:0.004257201682776213
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:31:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:最 最 淘宝 安全 ice taobao 最 最 比 淘宝 发票 sb 人民 系统 系统 正品 sb
+SFW score:0.9957427382469177
+NSFW score:0.004257201682776213
+图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:31:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:最 最 淘宝 安全 ice taobao 最 最 比 淘宝 发票 sb 人民 系统 系统 正品 sbSFW score:0.9957427382469177
+NSFW score:0.004257201682776213
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>【年度新香】diptyque蒂普提克淡香水50ml-100ml香氛系列纸上杜桑-tmall-com天猫.jpg</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:40:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:比 淘宝 性感 其他 草 正品 草 安全 草 草 系统 最 最 性感 唯一 正品 比 性感 地址 最 草
+SFW score:0.9994381070137024
+NSFW score:0.0005619340809062123
+图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:40:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:系统 比 淘宝 sb 发票 ice taobao 正品 人民 最 最 sb 最 淘宝 安全 最 系统SFW score:0.9957427382469177
+NSFW score:0.004257201682776213
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:41:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:比 淘宝 性感 其他 草 正品 草 安全 草 草 系统 最 最 性感 唯一 正品 比 性感 地址 最 草SFW score:0.9994381070137024
+NSFW score:0.0005619340809062123
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>可插入充气男用娃娃刘亦菲范冰冰赵丽颖明星款杨幂迪丽热巴林志玲-淘宝网.jpg</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:41:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:草 安全 插入 插入 安全 大法 真 淘宝 淘宝 插入 淘宝 安全 .com 比SFW score:0.9947983026504517
+NSFW score:0.005201671272516251
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>女朋友男人喜欢的东西可插入全实体硅胶女友娃男孩玩具智能美女6-淘宝网.jpg</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:41:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:插入 比 真 真 胸部 全面 吸允 真 真 真 安全 真 真 ice 其他 大法 真 安全 淘宝 bi av 真 其他 充气娃娃 其他 秘密花园 tel ligen 吸允SFW score:0.9841146469116211
+NSFW score:0.01588534191250801
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>智能机器人女朋友男人喜欢的东西实体硅胶女娃男孩玩具老婆美女iT-淘宝网.jpg</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:41:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:真 淘宝 真 最 安全 比SFW score:0.7349379062652588
+NSFW score:0.2650620937347412
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:51:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:正品 安全 最 最 比 淘宝 最 比 唯一 正品
+SFW score:0.9994381070137024
+NSFW score:0.0005619340809062123
+图片合格
+</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:56:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:taobao sb 安全 最 发票 人民 比 ice 正品 淘宝SFW score:0.9957427382469177
+NSFW score:0.004257201682776213
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:57:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:安全 最 比 唯一 正品 淘宝SFW score:0.9994381070137024
+NSFW score:0.0005619340809062123
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:57:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:大法 安全 .com 比 淘宝SFW score:0.9947983026504517
+NSFW score:0.005201671272516251
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:57:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:吸允 大法 ligen 秘密花园 tel 安全 全面 比 bi 充气娃娃 胸部 av ice 淘宝SFW score:0.9841146469116211
+NSFW score:0.01588534191250801
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-14 15:57:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:比 最 安全 淘宝SFW score:0.7349379062652588
+NSFW score:0.2650620937347412
+鍥剧墖鍚堟牸
 </t>
   </si>
 </sst>
@@ -1332,7 +1485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -3050,6 +3203,216 @@
       </c>
       <c r="D122" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>233</v>
+      </c>
+      <c r="C123" t="s">
+        <v>234</v>
+      </c>
+      <c r="D123" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>233</v>
+      </c>
+      <c r="C124" t="s">
+        <v>236</v>
+      </c>
+      <c r="D124" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" t="s">
+        <v>238</v>
+      </c>
+      <c r="D125" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" t="s">
+        <v>241</v>
+      </c>
+      <c r="D126" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>233</v>
+      </c>
+      <c r="C127" t="s">
+        <v>243</v>
+      </c>
+      <c r="D127" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>240</v>
+      </c>
+      <c r="C128" t="s">
+        <v>245</v>
+      </c>
+      <c r="D128" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" t="s">
+        <v>248</v>
+      </c>
+      <c r="D129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>250</v>
+      </c>
+      <c r="C130" t="s">
+        <v>251</v>
+      </c>
+      <c r="D130" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>253</v>
+      </c>
+      <c r="C131" t="s">
+        <v>254</v>
+      </c>
+      <c r="D131" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>240</v>
+      </c>
+      <c r="C132" t="s">
+        <v>256</v>
+      </c>
+      <c r="D132" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>233</v>
+      </c>
+      <c r="C133" t="s">
+        <v>258</v>
+      </c>
+      <c r="D133" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>240</v>
+      </c>
+      <c r="C134" t="s">
+        <v>260</v>
+      </c>
+      <c r="D134" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>247</v>
+      </c>
+      <c r="C135" t="s">
+        <v>262</v>
+      </c>
+      <c r="D135" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" t="s">
+        <v>264</v>
+      </c>
+      <c r="D136" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>253</v>
+      </c>
+      <c r="C137" t="s">
+        <v>266</v>
+      </c>
+      <c r="D137" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
   <si>
     <t>ID</t>
   </si>
@@ -1137,6 +1137,51 @@
   </si>
   <si>
     <t xml:space="preserve">Contains prohibited words:比 最 安全 淘宝SFW score:0.7349379062652588
+NSFW score:0.2650620937347412
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-18 11:55:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:比 ice 正品 淘宝 最 人民 发票 sb taobao 安全SFW score:0.9957427382469177
+NSFW score:0.004257201682776213
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-18 11:55:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:唯一 比 正品 最 淘宝 安全SFW score:0.9994381070137024
+NSFW score:0.0005619340809062123
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-18 11:55:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:安全 比 大法 淘宝 .comSFW score:0.9947983026504517
+NSFW score:0.005201671272516251
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-18 11:55:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:比 胸部 ligen 大法 ice 全面 av tel 吸允 淘宝 bi 充气娃娃 秘密花园 安全SFW score:0.9841146469116211
+NSFW score:0.01588534191250801
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-18 11:55:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:淘宝 最 安全 比SFW score:0.7349379062652588
 NSFW score:0.2650620937347412
 鍥剧墖鍚堟牸
 </t>
@@ -1485,7 +1530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -3413,6 +3458,76 @@
       </c>
       <c r="D137" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>233</v>
+      </c>
+      <c r="C138" t="s">
+        <v>268</v>
+      </c>
+      <c r="D138" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>240</v>
+      </c>
+      <c r="C139" t="s">
+        <v>270</v>
+      </c>
+      <c r="D139" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>247</v>
+      </c>
+      <c r="C140" t="s">
+        <v>272</v>
+      </c>
+      <c r="D140" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>250</v>
+      </c>
+      <c r="C141" t="s">
+        <v>274</v>
+      </c>
+      <c r="D141" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>253</v>
+      </c>
+      <c r="C142" t="s">
+        <v>276</v>
+      </c>
+      <c r="D142" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
   <si>
     <t>ID</t>
   </si>
@@ -1185,6 +1185,61 @@
 NSFW score:0.2650620937347412
 鍥剧墖鍚堟牸
 </t>
+  </si>
+  <si>
+    <t>images.jpg</t>
+  </si>
+  <si>
+    <t>2023-04-21 13:17:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图片文字内容合格SFW score:0.2005656212568283
+NSFW score:0.7994343638420105
+鍥剧墖鍚堟牸
+</t>
+  </si>
+  <si>
+    <t>2023-04-21 13:18:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图片文字内容合格
+图片文字内容合格
+图片文字内容合格
+SFW score:0.2005656212568283
+NSFW score:0.7994343638420105
+图片合格
+</t>
+  </si>
+  <si>
+    <t>下载.jpg</t>
+  </si>
+  <si>
+    <t>2023-04-21 13:18:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图片文字内容合格
+图片文字内容合格
+图片文字内容合格
+SFW score:0.2005656212568283
+NSFW score:0.7994343638420105
+图片合格
+图片文字内容合格
+SFW score:0.0005589677602984011
+NSFW score:0.9994409680366516
+含色情图片！违规！！
+</t>
+  </si>
+  <si>
+    <t>2023-04-21 13:33:09</t>
+  </si>
+  <si>
+    <t>2023-04-21 13:34:02</t>
+  </si>
+  <si>
+    <t>图片文字内容合格</t>
+  </si>
+  <si>
+    <t>2023-04-21 13:34:07</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -3528,6 +3583,90 @@
       </c>
       <c r="D142" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>278</v>
+      </c>
+      <c r="C143" t="s">
+        <v>279</v>
+      </c>
+      <c r="D143" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>278</v>
+      </c>
+      <c r="C144" t="s">
+        <v>281</v>
+      </c>
+      <c r="D144" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>283</v>
+      </c>
+      <c r="C145" t="s">
+        <v>284</v>
+      </c>
+      <c r="D145" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>278</v>
+      </c>
+      <c r="C146" t="s">
+        <v>286</v>
+      </c>
+      <c r="D146" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>278</v>
+      </c>
+      <c r="C147" t="s">
+        <v>287</v>
+      </c>
+      <c r="D147" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>283</v>
+      </c>
+      <c r="C148" t="s">
+        <v>289</v>
+      </c>
+      <c r="D148" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
   <si>
     <t>ID</t>
   </si>
@@ -1240,6 +1240,25 @@
   </si>
   <si>
     <t>2023-04-21 13:34:07</t>
+  </si>
+  <si>
+    <t>2023-04-21 13:37:57</t>
+  </si>
+  <si>
+    <t>2023-04-21 13:38:03</t>
+  </si>
+  <si>
+    <t>2023-04-21 13:45:35</t>
+  </si>
+  <si>
+    <t>2023-04-21 13:45:40</t>
+  </si>
+  <si>
+    <t>2023-05-08 20:10:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains prohibited words:安全 比 最
+</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -3667,6 +3686,76 @@
       </c>
       <c r="D148" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>278</v>
+      </c>
+      <c r="C149" t="s">
+        <v>290</v>
+      </c>
+      <c r="D149" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>283</v>
+      </c>
+      <c r="C150" t="s">
+        <v>291</v>
+      </c>
+      <c r="D150" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>278</v>
+      </c>
+      <c r="C151" t="s">
+        <v>292</v>
+      </c>
+      <c r="D151" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>283</v>
+      </c>
+      <c r="C152" t="s">
+        <v>293</v>
+      </c>
+      <c r="D152" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>253</v>
+      </c>
+      <c r="C153" t="s">
+        <v>294</v>
+      </c>
+      <c r="D153" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -3987,6 +3987,447 @@
         <is>
           <t xml:space="preserve">图片文字内容合格
 </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>C15E8B4556B7E16A6319E6272F9AE3D3.jpg</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:38:55</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contains prohibited words:强奸
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>60E403C0F9F7F806F63CFA4F2AE15731.jpg</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:55:20</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:圣母</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>C15E8B4556B7E16A6319E6272F9AE3D3.jpg</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:55:24</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:强奸</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>D251E8AD729B7E416E2E3D787A0739C3.jpg</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:55:27</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>图片文字内容合格</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>60E403C0F9F7F806F63CFA4F2AE15731.jpg</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:58:09</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:圣母</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>C15E8B4556B7E16A6319E6272F9AE3D3.jpg</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:58:12</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:强奸</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>D251E8AD729B7E416E2E3D787A0739C3.jpg</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:58:16</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>图片文字内容合格</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>60E403C0F9F7F806F63CFA4F2AE15731.jpg</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:58:53</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:圣母</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>C15E8B4556B7E16A6319E6272F9AE3D3.jpg</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:58:57</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:强奸</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>D251E8AD729B7E416E2E3D787A0739C3.jpg</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:59:00</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>图片文字内容合格</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>60E403C0F9F7F806F63CFA4F2AE15731.jpg</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:59:27</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:圣母</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>C15E8B4556B7E16A6319E6272F9AE3D3.jpg</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:59:31</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:强奸</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>D251E8AD729B7E416E2E3D787A0739C3.jpg</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:59:34</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>图片文字内容合格</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>60E403C0F9F7F806F63CFA4F2AE15731.jpg</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:59:56</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:圣母</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>C15E8B4556B7E16A6319E6272F9AE3D3.jpg</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2023-05-09 19:59:59</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:强奸</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>D251E8AD729B7E416E2E3D787A0739C3.jpg</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2023-05-09 20:00:03</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>图片文字内容合格</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>60E403C0F9F7F806F63CFA4F2AE15731.jpg</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2023-05-09 20:02:20</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:圣母</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>C15E8B4556B7E16A6319E6272F9AE3D3.jpg</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2023-05-09 20:02:23</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:强奸</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>D251E8AD729B7E416E2E3D787A0739C3.jpg</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2023-05-09 20:02:27</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>图片文字内容合格</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>60E403C0F9F7F806F63CFA4F2AE15731.jpg</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2023-05-09 20:03:33</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:圣母</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>C15E8B4556B7E16A6319E6272F9AE3D3.jpg</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2023-05-09 20:03:37</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:强奸</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>D251E8AD729B7E416E2E3D787A0739C3.jpg</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2023-05-09 20:03:40</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>图片文字内容合格</t>
         </is>
       </c>
     </row>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9420" windowWidth="22368"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,17 +11,17 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="21">
     <font>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -29,21 +29,350 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="9"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -51,15 +380,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="7" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="11" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="11" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="12" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
@@ -414,7 +1036,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -424,16 +1045,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="74.625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="21.625"/>
+    <col customWidth="1" max="2" min="2" width="74.6296296296296"/>
+    <col customWidth="1" max="3" min="3" width="21.6296296296296"/>
+    <col customWidth="1" max="4" min="4" width="27"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -650,7 +1272,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row customHeight="1" ht="100.8" r="10">
       <c r="A10" t="n">
         <v>10</v>
       </c>
@@ -664,7 +1286,7 @@
           <t>2022-07-04 13:31:03</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">广告内有违规词：最
 SFW score:0.9977292418479919
@@ -4426,6 +5048,168 @@
         </is>
       </c>
       <c r="D176" t="inlineStr">
+        <is>
+          <t>图片文字内容合格</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>D251E8AD729B7E416E2E3D787A0739C3.jpg</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2023-05-09 20:31:35</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">图片文字内容合格
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>C15E8B4556B7E16A6319E6272F9AE3D3.jpg</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2023-05-09 20:48:46</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contains prohibited words:强奸
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>60E403C0F9F7F806F63CFA4F2AE15731.jpg</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2023-05-10 21:35:04</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:圣母</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>C15E8B4556B7E16A6319E6272F9AE3D3.jpg</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2023-05-10 21:35:07</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:强奸</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>D251E8AD729B7E416E2E3D787A0739C3.jpg</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2023-05-10 21:35:11</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>图片文字内容合格</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>60E403C0F9F7F806F63CFA4F2AE15731.jpg</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2023-05-10 22:09:08</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:圣母</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>C15E8B4556B7E16A6319E6272F9AE3D3.jpg</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2023-05-10 22:09:13</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Contains prohibited words:强奸</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>D251E8AD729B7E416E2E3D787A0739C3.jpg</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2023-05-10 22:09:16</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
         <is>
           <t>图片文字内容合格</t>
         </is>
@@ -4449,7 +5233,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4467,7 +5251,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/detection/result.xlsx
+++ b/detection/result.xlsx
@@ -1045,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -5212,6 +5212,27 @@
       <c r="D184" t="inlineStr">
         <is>
           <t>图片文字内容合格</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>C15E8B4556B7E16A6319E6272F9AE3D3.jpg</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2023-05-10 23:15:13</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contains prohibited words:强奸
+</t>
         </is>
       </c>
     </row>
